--- a/student_schedule/2025春期講習日程(小学生) (1).xlsx
+++ b/student_schedule/2025春期講習日程(小学生) (1).xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="87">
   <si>
     <t>２０２５年春期講習日程表</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>佐山　樹　さん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                              </t>
   </si>
   <si>
     <t>酒井　康行　さん</t>
@@ -7716,10 +7719,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K57" sqref="A1:K57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V57" sqref="R35:V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8738,7 +8741,11 @@
       <c r="J56" s="33"/>
       <c r="K56" s="52"/>
     </row>
-    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1" spans="22:22">
+      <c r="V57" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="78">
     <mergeCell ref="E1:F1"/>
@@ -8853,12 +8860,12 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K1" s="36"/>
     </row>
@@ -9427,7 +9434,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>31</v>
@@ -9454,7 +9461,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>31</v>
@@ -10044,7 +10051,7 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -11161,7 +11168,7 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -11862,7 +11869,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="13"/>
